--- a/src/main/resources/data/ThirdPartyProduct.xlsx
+++ b/src/main/resources/data/ThirdPartyProduct.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -51,36 +51,6 @@
   </si>
   <si>
     <t>Third Party PD - 5</t>
-  </si>
-  <si>
-    <t>Third Party PD - 6</t>
-  </si>
-  <si>
-    <t>Third Party PD - 7</t>
-  </si>
-  <si>
-    <t>Third Party PD - 8</t>
-  </si>
-  <si>
-    <t>Third Party PD - 9</t>
-  </si>
-  <si>
-    <t>Third Party PD - 10</t>
-  </si>
-  <si>
-    <t>Third Party PD - 12</t>
-  </si>
-  <si>
-    <t>Third Party PD - 14</t>
-  </si>
-  <si>
-    <t>Third Party PD - 15</t>
-  </si>
-  <si>
-    <t>Third Party PD - 11</t>
-  </si>
-  <si>
-    <t>Third Party PD - 13</t>
   </si>
 </sst>
 </file>
@@ -398,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,146 +463,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>56</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>2323</v>
-      </c>
-      <c r="D13">
-        <v>232323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>121</v>
-      </c>
-      <c r="D14">
-        <v>121212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>1212</v>
-      </c>
-      <c r="D15">
-        <v>12121212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>2323</v>
-      </c>
-      <c r="D16">
-        <v>2323</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/data/ThirdPartyProduct.xlsx
+++ b/src/main/resources/data/ThirdPartyProduct.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joebr\IdeaProjects\shop-expense-tracker\src\main\resources\data\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -57,6 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,96 +372,96 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n" s="0">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>16</v>
       </c>
-      <c r="D6">
-        <v>11</v>
+      <c r="D6" s="0" t="n">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
